--- a/data/springcloud-course/hr-user_structure.xlsx
+++ b/data/springcloud-course/hr-user_structure.xlsx
@@ -261,28 +261,28 @@
     <t>Field Type</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>roleName</t>
   </si>
   <si>
-    <t>private</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>userRepository</t>
   </si>
   <si>
+    <t>roles</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
+    <t>password</t>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>roles</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>passwordEncoder</t>
@@ -3018,7 +3018,7 @@
         <v>80</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
@@ -3032,7 +3032,7 @@
         <v>80</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -3040,7 +3040,7 @@
         <v>34</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>80</v>
@@ -3054,7 +3054,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s" s="0">
         <v>80</v>
@@ -3088,7 +3088,7 @@
         <v>80</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -3116,7 +3116,7 @@
         <v>80</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -3124,13 +3124,13 @@
         <v>48</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s" s="0">
         <v>80</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -3138,13 +3138,13 @@
         <v>48</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s" s="0">
         <v>80</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12">
@@ -3166,13 +3166,13 @@
         <v>38</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s" s="0">
         <v>80</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
@@ -3180,7 +3180,7 @@
         <v>38</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s" s="0">
         <v>80</v>
@@ -3194,13 +3194,13 @@
         <v>38</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s" s="0">
         <v>80</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -3214,7 +3214,7 @@
         <v>80</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>65</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
@@ -3228,7 +3228,7 @@
         <v>80</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
